--- a/Age Buckets.xlsx
+++ b/Age Buckets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\AA490\Project\AA490_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AC670E-2CC7-43C0-B16A-B4787EED85CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F89D56E-2B5D-4011-A651-CBE7A6CE6F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B389C0CF-A266-43D1-95A0-16ECDE296F4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B389C0CF-A266-43D1-95A0-16ECDE296F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Disease Diagnoses " sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="74">
   <si>
     <t xml:space="preserve">Historic Population </t>
   </si>
@@ -285,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -329,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,6 +363,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA05F3FC-0E52-494D-983C-5FD6E6F01D0D}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +827,7 @@
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G7" t="s">
@@ -818,7 +847,7 @@
       <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
@@ -838,7 +867,7 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>56</v>
       </c>
       <c r="K9">
@@ -880,7 +909,7 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K12">
@@ -1010,7 +1039,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K23">
@@ -1188,25 +1217,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,502 +1242,475 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K3">
+      <c r="I3">
         <v>1972</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K4">
+      <c r="I4">
         <v>1973</v>
       </c>
-      <c r="L4" s="3">
+      <c r="J4" s="3">
         <v>1950</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K5">
+      <c r="I5">
         <v>1974</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>1975</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6">
-        <v>1975</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7">
+      <c r="I7">
         <v>1976</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K8">
+      <c r="I8">
         <v>1977</v>
       </c>
-      <c r="L8" s="3">
+      <c r="J8" s="3">
         <v>1959</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9">
+      <c r="I9">
         <v>1978</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K10">
+      <c r="I10">
         <v>1979</v>
       </c>
-      <c r="L10" s="3">
+      <c r="J10" s="3">
         <v>1962</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K11">
+      <c r="I11">
         <v>1980</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12">
+      <c r="I12">
         <v>1981</v>
       </c>
-      <c r="L12" s="3">
+      <c r="J12" s="3">
         <v>1966</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
+      <c r="I13">
         <v>1982</v>
       </c>
-      <c r="L13" s="3">
+      <c r="J13" s="3">
         <v>1967</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="K14">
+      <c r="I14">
         <v>1983</v>
       </c>
-      <c r="L14" s="3">
+      <c r="J14" s="3">
         <v>1968</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="K15">
+      <c r="I15">
         <v>1984</v>
       </c>
-      <c r="L15" s="3">
+      <c r="J15" s="3">
         <v>1969</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="K16">
+      <c r="I16">
         <v>1985</v>
       </c>
-      <c r="L16" s="3">
+      <c r="J16" s="3">
         <v>1970</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="I17">
         <v>1986</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K18">
+      <c r="I18">
         <v>1987</v>
       </c>
-      <c r="L18" s="3">
+      <c r="J18" s="3">
         <v>1973</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K19">
+      <c r="I19">
         <v>1988</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K20">
+      <c r="I20">
         <v>1989</v>
       </c>
-      <c r="L20" s="3">
+      <c r="J20" s="3">
         <v>1978</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K21">
+      <c r="I21">
         <v>1990</v>
       </c>
-      <c r="L21" s="3">
+      <c r="J21" s="3">
         <v>1979</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="I22">
         <v>1991</v>
       </c>
-      <c r="L22" s="3">
+      <c r="J22" s="3">
         <v>1980</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K23">
+      <c r="I23">
         <v>1992</v>
       </c>
-      <c r="L23" s="3">
+      <c r="J23" s="3">
         <v>1981</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="K24">
+      <c r="I24">
         <v>1993</v>
       </c>
-      <c r="L24" s="3">
+      <c r="J24" s="3">
         <v>1982</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="K25">
+      <c r="I25">
         <v>1994</v>
       </c>
-      <c r="L25" s="3">
+      <c r="J25" s="3">
         <v>1983</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="K26">
+      <c r="I26">
         <v>1995</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="K27">
+      <c r="I27">
         <v>1996</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="K28">
+      <c r="I28">
         <v>1997</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="K29">
+      <c r="I29">
         <v>1998</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="K30">
+      <c r="I30">
         <v>1999</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="K31">
+      <c r="I31">
         <v>2000</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32">
         <v>2001</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33">
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34">
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35">
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36">
         <v>2005</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37">
         <v>2006</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38">
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39">
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41">
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42">
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44">
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45">
         <v>2014</v>
       </c>
     </row>

--- a/Age Buckets.xlsx
+++ b/Age Buckets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\AA490\Project\AA490_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F89D56E-2B5D-4011-A651-CBE7A6CE6F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD811629-92E5-4517-B948-6D9298D2592A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B389C0CF-A266-43D1-95A0-16ECDE296F4F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
   <si>
     <t xml:space="preserve">Historic Population </t>
   </si>

--- a/Age Buckets.xlsx
+++ b/Age Buckets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\AA490\Project\AA490_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD811629-92E5-4517-B948-6D9298D2592A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435E093A-277B-4076-9D6A-9836E18F2DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B389C0CF-A266-43D1-95A0-16ECDE296F4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B389C0CF-A266-43D1-95A0-16ECDE296F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Disease Diagnoses " sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
   <si>
     <t xml:space="preserve">Historic Population </t>
   </si>
@@ -255,13 +255,16 @@
   </si>
   <si>
     <t xml:space="preserve">Social Security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Difference  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +287,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,6 +383,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,532 +701,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA05F3FC-0E52-494D-983C-5FD6E6F01D0D}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>1972</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1973</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>1950</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1974</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>1975</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>1976</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1977</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1959</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>1978</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>1979</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1962</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1980</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12">
+      <c r="D12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12">
         <v>1981</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1966</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
+      <c r="D13" s="15"/>
+      <c r="M13">
         <v>1982</v>
       </c>
-      <c r="L13" s="3">
+      <c r="N13" s="3">
         <v>1967</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14">
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14">
         <v>1983</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1968</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15">
+        <v>43</v>
+      </c>
+      <c r="M15">
         <v>1984</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1969</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="K16">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16">
         <v>1985</v>
       </c>
-      <c r="L16" s="3">
+      <c r="N16" s="3">
         <v>1970</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>1986</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>1987</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1973</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>1988</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>1989</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1978</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>1990</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1979</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>1991</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1980</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>1992</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1981</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>1993</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1982</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>1994</v>
       </c>
-      <c r="L25" s="3">
+      <c r="N25" s="3">
         <v>1983</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>1995</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>1996</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>1997</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>1998</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>1999</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>2000</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M32">
         <v>2001</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33">
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34">
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34">
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35">
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35">
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36">
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36">
         <v>2005</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37">
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37">
         <v>2006</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38">
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38">
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39">
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39">
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40">
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41">
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42">
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42">
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43">
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44">
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44">
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45">
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45">
         <v>2014</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1219,8 +1251,8 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1321,7 @@
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1320,10 +1352,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1340,8 +1372,8 @@
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>50</v>
@@ -1357,8 +1389,8 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
+      <c r="C8" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>51</v>
@@ -1371,11 +1403,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="I9">
         <v>1978</v>
@@ -1388,8 +1420,8 @@
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>41</v>
+      <c r="C10" t="s">
+        <v>39</v>
       </c>
       <c r="I10">
         <v>1979</v>
@@ -1399,11 +1431,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>42</v>
+      <c r="C11" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I11">
         <v>1980</v>
@@ -1416,8 +1448,8 @@
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>26</v>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I12">
         <v>1981</v>
@@ -1430,8 +1462,8 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I13">
         <v>1982</v>
@@ -1445,7 +1477,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>1983</v>
@@ -1459,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15">
         <v>1984</v>

--- a/Age Buckets.xlsx
+++ b/Age Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\AA490\Project\AA490_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bryantu-my.sharepoint.com/personal/dplumeri_bryant_edu/Documents/College/Senior/Semester I/AA490/Final Project/Git_Repository/AA490_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435E093A-277B-4076-9D6A-9836E18F2DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{FB9C856B-4CAB-4F8F-ADB1-99BC16B49E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B389C0CF-A266-43D1-95A0-16ECDE296F4F}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="17280" windowHeight="8952" xr2:uid="{B389C0CF-A266-43D1-95A0-16ECDE296F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Disease Diagnoses " sheetId="2" r:id="rId1"/>
@@ -707,21 +707,21 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -761,7 +761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -781,7 +781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -821,7 +821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -841,7 +841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -861,7 +861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -898,7 +898,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -926,7 +926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -972,7 +972,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1165,72 +1165,72 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M32">
         <v>2001</v>
       </c>
     </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M33">
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M34">
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M35">
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M36">
         <v>2005</v>
       </c>
     </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M37">
         <v>2006</v>
       </c>
     </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M38">
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M39">
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M40">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M41">
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M42">
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M43">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M44">
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M45">
         <v>2014</v>
       </c>
@@ -1255,18 +1255,18 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1676,72 +1676,72 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I32">
         <v>2001</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33">
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I34">
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35">
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36">
         <v>2005</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37">
         <v>2006</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38">
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39">
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41">
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I42">
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I43">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>2014</v>
       </c>
@@ -1760,19 +1760,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2209,72 +2209,72 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K32">
         <v>2001</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K33">
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K34">
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K35">
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K36">
         <v>2005</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K37">
         <v>2006</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K38">
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K39">
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K40">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K41">
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K42">
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K43">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K44">
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K45">
         <v>2014</v>
       </c>
